--- a/results/comparaison/GM/retardance/median_raw_data.xlsx
+++ b/results/comparaison/GM/retardance/median_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.2170207603253</v>
+        <v>20.15632724691064</v>
       </c>
       <c r="C2">
-        <v>10.1403753994012</v>
+        <v>5.027179092404891</v>
       </c>
       <c r="D2">
-        <v>11.10233170539316</v>
+        <v>4.778876971930711</v>
       </c>
       <c r="E2">
-        <v>11.2104362847163</v>
+        <v>17.03076421724449</v>
       </c>
       <c r="F2">
-        <v>9.296810518049735</v>
+        <v>8.498101466035866</v>
       </c>
       <c r="G2">
-        <v>11.17562617154021</v>
+        <v>8.981199487476589</v>
       </c>
       <c r="H2">
-        <v>16.71776184009365</v>
+        <v>4.279010023099826</v>
       </c>
       <c r="I2">
-        <v>5.538370158957466</v>
+        <v>14.9133260941459</v>
       </c>
       <c r="J2">
-        <v>7.035905457475873</v>
+        <v>9.933172164060556</v>
       </c>
       <c r="K2">
-        <v>11.7816357405574</v>
+        <v>9.068035767469382</v>
       </c>
       <c r="L2">
-        <v>6.229367816123466</v>
+        <v>7.715369424291301</v>
       </c>
       <c r="M2">
-        <v>8.68017408230542</v>
+        <v>11.77069764891583</v>
       </c>
       <c r="N2">
-        <v>10.83773681811947</v>
+        <v>16.65035706428298</v>
       </c>
       <c r="O2">
-        <v>23.61228974501979</v>
+        <v>5.216271576700375</v>
       </c>
       <c r="P2">
-        <v>11.24455171594854</v>
+        <v>6.712692775297993</v>
       </c>
       <c r="Q2">
-        <v>9.08104053382764</v>
+        <v>10.69601438910183</v>
       </c>
       <c r="R2">
-        <v>8.371775702404339</v>
+        <v>23.58772153194252</v>
       </c>
       <c r="S2">
-        <v>11.72719116302371</v>
+        <v>11.1451776863573</v>
       </c>
       <c r="T2">
-        <v>4.761196015624315</v>
+        <v>13.70571354922613</v>
       </c>
       <c r="U2">
-        <v>9.227798161536288</v>
+        <v>5.368395649481174</v>
       </c>
       <c r="V2">
-        <v>5.022747562567743</v>
+        <v>11.18691224558728</v>
       </c>
       <c r="W2">
-        <v>19.63385051916805</v>
+        <v>10.74225229602069</v>
       </c>
       <c r="X2">
-        <v>5.057823730000688</v>
+        <v>14.21151619194351</v>
       </c>
       <c r="Y2">
-        <v>8.145156087958286</v>
+        <v>10.69463968650384</v>
       </c>
       <c r="Z2">
-        <v>15.01292652476798</v>
+        <v>7.34230620649298</v>
       </c>
       <c r="AA2">
-        <v>6.492879867542353</v>
+        <v>9.996556635375628</v>
       </c>
       <c r="AB2">
-        <v>4.598705591452514</v>
+        <v>23.26588582918019</v>
       </c>
       <c r="AC2">
-        <v>8.847573878630506</v>
+        <v>3.929997838293318</v>
       </c>
       <c r="AD2">
-        <v>10.83158671176365</v>
+        <v>24.94670335779843</v>
       </c>
       <c r="AE2">
-        <v>4.946816368228246</v>
+        <v>5.007538854306844</v>
       </c>
       <c r="AF2">
-        <v>9.254456200571855</v>
+        <v>3.791887479700351</v>
       </c>
       <c r="AG2">
-        <v>10.09425005518975</v>
+        <v>8.25581869836768</v>
       </c>
       <c r="AH2">
-        <v>9.107888180002131</v>
+        <v>5.472517455199844</v>
       </c>
       <c r="AI2">
-        <v>5.492937278138988</v>
+        <v>6.738869962464312</v>
       </c>
       <c r="AJ2">
-        <v>8.270377897080596</v>
+        <v>12.51259066642259</v>
       </c>
       <c r="AK2">
-        <v>5.228251669231566</v>
+        <v>5.947792652794643</v>
       </c>
       <c r="AL2">
-        <v>12.32688325409535</v>
+        <v>9.395652221149088</v>
       </c>
       <c r="AM2">
-        <v>4.893551005692162</v>
+        <v>14.98284733892503</v>
       </c>
       <c r="AN2">
-        <v>25.38730516367998</v>
+        <v>5.845695667050567</v>
       </c>
       <c r="AO2">
-        <v>9.180559625379791</v>
+        <v>20.03753117486775</v>
       </c>
       <c r="AP2">
-        <v>5.512946383220199</v>
+        <v>6.603344137540608</v>
       </c>
       <c r="AQ2">
-        <v>6.962660710172633</v>
+        <v>6.330248201149725</v>
       </c>
       <c r="AR2">
-        <v>4.692949691075255</v>
+        <v>19.13019938663501</v>
       </c>
       <c r="AS2">
-        <v>23.40445083316997</v>
+        <v>3.322517971891729</v>
       </c>
       <c r="AT2">
-        <v>14.04892999288731</v>
+        <v>3.426847598822809</v>
       </c>
       <c r="AU2">
-        <v>21.49157012779846</v>
+        <v>5.434038220020031</v>
       </c>
       <c r="AV2">
-        <v>3.97806820478791</v>
+        <v>9.645660182363226</v>
       </c>
       <c r="AW2">
-        <v>12.98140956630465</v>
+        <v>5.558886799503311</v>
       </c>
       <c r="AX2">
-        <v>10.97683805712045</v>
+        <v>10.75439315994285</v>
       </c>
       <c r="AY2">
-        <v>4.712305172538632</v>
+        <v>7.384672782240273</v>
       </c>
       <c r="AZ2">
-        <v>6.648724862501968</v>
+        <v>5.219851365645274</v>
       </c>
       <c r="BA2">
-        <v>4.823686979137558</v>
+        <v>11.71633609747614</v>
       </c>
       <c r="BB2">
-        <v>11.3140852336258</v>
+        <v>5.140785075603233</v>
       </c>
       <c r="BC2">
-        <v>8.289192663945276</v>
+        <v>8.896349931347949</v>
       </c>
       <c r="BD2">
-        <v>3.846185985005953</v>
+        <v>10.27359624328857</v>
       </c>
       <c r="BE2">
-        <v>10.07690408983782</v>
+        <v>4.063275204255524</v>
       </c>
       <c r="BF2">
-        <v>13.38180091808511</v>
+        <v>9.067316917989707</v>
       </c>
       <c r="BG2">
-        <v>6.627485974492931</v>
+        <v>4.11322599221717</v>
       </c>
       <c r="BH2">
-        <v>19.52466727104214</v>
+        <v>3.181334973500792</v>
       </c>
       <c r="BI2">
-        <v>10.66482049780999</v>
+        <v>3.007983653828747</v>
       </c>
       <c r="BJ2">
-        <v>8.642567406102664</v>
+        <v>14.70358994822858</v>
       </c>
       <c r="BK2">
-        <v>5.203275729085906</v>
+        <v>6.880392154651089</v>
       </c>
       <c r="BL2">
-        <v>6.205999508666594</v>
+        <v>11.7570848765247</v>
       </c>
       <c r="BM2">
-        <v>14.32761891388082</v>
+        <v>7.163544666274599</v>
       </c>
       <c r="BN2">
-        <v>7.483910589244243</v>
+        <v>8.320572625559873</v>
       </c>
       <c r="BO2">
-        <v>7.344916476489912</v>
+        <v>4.645560006670019</v>
       </c>
       <c r="BP2">
-        <v>13.87091370245496</v>
+        <v>3.537788117370292</v>
       </c>
       <c r="BQ2">
-        <v>6.168965663028484</v>
+        <v>5.940198711115899</v>
       </c>
       <c r="BR2">
-        <v>10.49930870070042</v>
+        <v>3.738690367393732</v>
       </c>
       <c r="BS2">
-        <v>12.70573015403961</v>
+        <v>12.80627194057164</v>
       </c>
       <c r="BT2">
-        <v>23.70467341159691</v>
+        <v>5.294119432761709</v>
       </c>
       <c r="BU2">
-        <v>13.66129973647794</v>
+        <v>13.45866232749284</v>
       </c>
       <c r="BV2">
-        <v>22.95612573910388</v>
+        <v>4.922131073616948</v>
       </c>
       <c r="BW2">
-        <v>10.13951064585473</v>
+        <v>5.693231427259628</v>
       </c>
       <c r="BX2">
-        <v>9.11380214678122</v>
+        <v>13.30583320692027</v>
       </c>
       <c r="BY2">
-        <v>11.22176129204796</v>
+        <v>5.832160902166317</v>
       </c>
       <c r="BZ2">
-        <v>9.487008757398094</v>
+        <v>4.83974394340833</v>
       </c>
       <c r="CA2">
-        <v>7.829308558180189</v>
+        <v>9.864224322166113</v>
       </c>
       <c r="CB2">
-        <v>6.031220584311244</v>
+        <v>11.34922930684529</v>
       </c>
       <c r="CC2">
-        <v>15.15594349427583</v>
+        <v>8.043541945274979</v>
       </c>
       <c r="CD2">
-        <v>6.251174025923881</v>
+        <v>10.55956760812558</v>
       </c>
       <c r="CE2">
-        <v>15.27747415490926</v>
+        <v>5.294228260203696</v>
       </c>
       <c r="CF2">
-        <v>7.548062531242531</v>
+        <v>8.531147074743366</v>
       </c>
       <c r="CG2">
-        <v>4.910755611679742</v>
+        <v>8.129404604225019</v>
       </c>
       <c r="CH2">
-        <v>10.59647411962909</v>
+        <v>4.619308144575243</v>
       </c>
       <c r="CI2">
-        <v>5.439445128192219</v>
+        <v>5.226321942786254</v>
       </c>
       <c r="CJ2">
-        <v>7.154995553667743</v>
+        <v>7.840992899840545</v>
       </c>
       <c r="CK2">
-        <v>13.03358714320694</v>
+        <v>9.56488130040443</v>
       </c>
       <c r="CL2">
-        <v>8.517019138792978</v>
+        <v>3.7600378817292</v>
       </c>
       <c r="CM2">
-        <v>9.066651317231932</v>
+        <v>3.143819331509068</v>
       </c>
       <c r="CN2">
-        <v>5.267156494845125</v>
+        <v>6.704403700595221</v>
       </c>
       <c r="CO2">
-        <v>4.501816689639856</v>
+        <v>7.136144403037555</v>
       </c>
       <c r="CP2">
-        <v>6.115348727627705</v>
+        <v>6.646192949556508</v>
       </c>
       <c r="CQ2">
-        <v>8.013065231993735</v>
+        <v>5.238068588078535</v>
       </c>
       <c r="CR2">
-        <v>8.818255238981784</v>
+        <v>4.65093141645081</v>
       </c>
       <c r="CS2">
-        <v>5.268115041225981</v>
+        <v>7.065838938843639</v>
       </c>
       <c r="CT2">
-        <v>8.250771866698697</v>
+        <v>9.544390723764788</v>
       </c>
       <c r="CU2">
-        <v>4.636329379414475</v>
+        <v>10.12571675367489</v>
       </c>
       <c r="CV2">
-        <v>11.71022706853338</v>
+        <v>6.299252214752388</v>
       </c>
       <c r="CW2">
-        <v>5.339775038438928</v>
+        <v>11.67731639530816</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>7.742542200596223</v>
-      </c>
       <c r="C3">
-        <v>4.700819109845993</v>
+        <v>5.195293947869432</v>
       </c>
       <c r="D3">
-        <v>5.87294663123105</v>
+        <v>4.711170964033712</v>
       </c>
       <c r="E3">
-        <v>4.513914520705963</v>
-      </c>
-      <c r="F3">
-        <v>5.272126236560963</v>
-      </c>
-      <c r="G3">
-        <v>5.150804262612965</v>
+        <v>7.30517189525137</v>
       </c>
       <c r="H3">
-        <v>4.683363131337356</v>
+        <v>10.93291818454345</v>
       </c>
       <c r="I3">
-        <v>7.745532579822807</v>
+        <v>4.005457117036054</v>
+      </c>
+      <c r="J3">
+        <v>4.093935883700832</v>
+      </c>
+      <c r="K3">
+        <v>4.603195862387248</v>
       </c>
       <c r="L3">
-        <v>3.933853280859662</v>
+        <v>5.831839886678189</v>
+      </c>
+      <c r="M3">
+        <v>4.645749645723697</v>
       </c>
       <c r="N3">
-        <v>6.268560032751712</v>
+        <v>3.951405345602498</v>
+      </c>
+      <c r="O3">
+        <v>7.327700971149427</v>
       </c>
       <c r="P3">
-        <v>5.125464460111604</v>
-      </c>
-      <c r="R3">
-        <v>4.616903844642676</v>
-      </c>
-      <c r="S3">
-        <v>8.035825292671451</v>
+        <v>4.926129522704839</v>
+      </c>
+      <c r="Q3">
+        <v>5.779436975488075</v>
       </c>
       <c r="T3">
-        <v>3.525623056251798</v>
+        <v>12.86514160905589</v>
+      </c>
+      <c r="U3">
+        <v>4.63524545718188</v>
       </c>
       <c r="V3">
-        <v>5.292554456003717</v>
-      </c>
-      <c r="X3">
-        <v>11.35320284475</v>
+        <v>3.846486012399757</v>
+      </c>
+      <c r="W3">
+        <v>5.712572846409575</v>
       </c>
       <c r="Y3">
-        <v>4.686076969601611</v>
+        <v>10.82107145561287</v>
       </c>
       <c r="Z3">
-        <v>4.73253477060485</v>
-      </c>
-      <c r="AB3">
-        <v>3.742332031465008</v>
+        <v>5.037635211062272</v>
+      </c>
+      <c r="AA3">
+        <v>6.756937510480502</v>
       </c>
       <c r="AC3">
-        <v>4.364262739141396</v>
+        <v>4.534104955721753</v>
       </c>
       <c r="AD3">
-        <v>4.568579050017133</v>
-      </c>
-      <c r="AE3">
-        <v>6.358390499457087</v>
+        <v>21.92629233359157</v>
       </c>
       <c r="AF3">
-        <v>6.940912710340603</v>
+        <v>6.436668535712035</v>
       </c>
       <c r="AG3">
-        <v>4.703378634438181</v>
-      </c>
-      <c r="AH3">
-        <v>3.416650032141524</v>
+        <v>8.683234839498926</v>
       </c>
       <c r="AI3">
-        <v>4.759826567594121</v>
+        <v>4.911674132501247</v>
       </c>
       <c r="AJ3">
-        <v>7.288901299511736</v>
+        <v>5.891277719221365</v>
+      </c>
+      <c r="AK3">
+        <v>4.943962079092227</v>
       </c>
       <c r="AL3">
-        <v>2.902453301646379</v>
+        <v>18.12148021129425</v>
+      </c>
+      <c r="AM3">
+        <v>4.934579133829022</v>
       </c>
       <c r="AN3">
-        <v>22.84279619155334</v>
+        <v>3.667773480494999</v>
       </c>
       <c r="AO3">
-        <v>5.605892051848403</v>
+        <v>18.321188224304</v>
       </c>
       <c r="AP3">
-        <v>8.661826701391478</v>
+        <v>4.487922558254912</v>
       </c>
       <c r="AQ3">
-        <v>17.6350927277624</v>
+        <v>2.930457689554609</v>
       </c>
       <c r="AR3">
-        <v>4.217660422992358</v>
+        <v>3.604389512406097</v>
       </c>
       <c r="AT3">
-        <v>8.652932313753304</v>
+        <v>3.841624036103001</v>
+      </c>
+      <c r="AU3">
+        <v>3.569444914397118</v>
       </c>
       <c r="AV3">
-        <v>5.88306452392121</v>
+        <v>3.436717317791369</v>
       </c>
       <c r="AW3">
-        <v>17.47093754592364</v>
+        <v>6.92812367823837</v>
       </c>
       <c r="AX3">
-        <v>5.50405450705143</v>
+        <v>2.064134595044309</v>
       </c>
       <c r="AY3">
-        <v>3.028606370851493</v>
-      </c>
-      <c r="AZ3">
-        <v>6.870334259987672</v>
+        <v>16.359397454086</v>
       </c>
       <c r="BA3">
-        <v>5.72078075944755</v>
+        <v>11.66221586601827</v>
       </c>
       <c r="BB3">
-        <v>10.26893626973228</v>
+        <v>6.597017605244814</v>
       </c>
       <c r="BC3">
-        <v>6.427557444710044</v>
+        <v>9.822556695195413</v>
       </c>
       <c r="BD3">
-        <v>3.654744022162124</v>
+        <v>3.456374582206227</v>
       </c>
       <c r="BE3">
-        <v>5.881399560906496</v>
+        <v>2.76493049272673</v>
       </c>
       <c r="BF3">
-        <v>9.996968721748791</v>
-      </c>
-      <c r="BG3">
-        <v>5.447165262694893</v>
+        <v>2.907432472885898</v>
       </c>
       <c r="BH3">
-        <v>7.826649786183498</v>
+        <v>3.417289953654804</v>
       </c>
       <c r="BI3">
-        <v>4.027374750164596</v>
+        <v>2.926512170019391</v>
       </c>
       <c r="BJ3">
-        <v>5.573292125165369</v>
+        <v>6.547035899670169</v>
+      </c>
+      <c r="BK3">
+        <v>5.076290117104827</v>
       </c>
       <c r="BL3">
-        <v>6.990279324948342</v>
-      </c>
-      <c r="BM3">
-        <v>5.285777029438847</v>
+        <v>3.893434398729319</v>
+      </c>
+      <c r="BN3">
+        <v>7.623704888276867</v>
+      </c>
+      <c r="BO3">
+        <v>3.413962166062029</v>
+      </c>
+      <c r="BP3">
+        <v>2.118118493751414</v>
       </c>
       <c r="BQ3">
-        <v>4.856401811470448</v>
+        <v>2.668943193840497</v>
       </c>
       <c r="BR3">
-        <v>5.104884352764028</v>
+        <v>4.232164147690616</v>
       </c>
       <c r="BS3">
-        <v>9.451294731340569</v>
+        <v>5.184881349641449</v>
       </c>
       <c r="BT3">
-        <v>4.681027642531586</v>
+        <v>6.469234654355455</v>
       </c>
       <c r="BU3">
-        <v>6.306160625067718</v>
+        <v>5.86094126445529</v>
       </c>
       <c r="BV3">
-        <v>4.625864156002679</v>
+        <v>3.803762976415017</v>
       </c>
       <c r="BW3">
-        <v>4.573555822021374</v>
+        <v>5.639981426248628</v>
       </c>
       <c r="BX3">
-        <v>5.437646118999088</v>
-      </c>
-      <c r="CA3">
-        <v>4.278630352820098</v>
+        <v>3.582807055098154</v>
+      </c>
+      <c r="BY3">
+        <v>3.071782451933553</v>
+      </c>
+      <c r="BZ3">
+        <v>3.204431832000396</v>
       </c>
       <c r="CB3">
-        <v>4.140180330031026</v>
+        <v>5.118065004072554</v>
+      </c>
+      <c r="CC3">
+        <v>2.117531220255049</v>
       </c>
       <c r="CD3">
-        <v>4.908778399306214</v>
+        <v>3.304590619640443</v>
       </c>
       <c r="CE3">
-        <v>6.832319759202095</v>
+        <v>3.379866111776817</v>
       </c>
       <c r="CF3">
-        <v>3.961278622868802</v>
+        <v>2.778913308280552</v>
+      </c>
+      <c r="CG3">
+        <v>3.919057993764672</v>
       </c>
       <c r="CH3">
-        <v>3.421794219978735</v>
+        <v>3.181981011769517</v>
+      </c>
+      <c r="CI3">
+        <v>2.023048773884745</v>
       </c>
       <c r="CK3">
-        <v>6.048861733153794</v>
+        <v>9.081810949085989</v>
+      </c>
+      <c r="CL3">
+        <v>3.385652128482033</v>
       </c>
       <c r="CM3">
-        <v>9.423282362950994</v>
+        <v>2.974843494424229</v>
       </c>
       <c r="CN3">
-        <v>4.235820729387905</v>
+        <v>2.962716596724819</v>
+      </c>
+      <c r="CO3">
+        <v>4.803262006828837</v>
       </c>
       <c r="CP3">
-        <v>5.969197471868844</v>
+        <v>4.396568299916325</v>
+      </c>
+      <c r="CQ3">
+        <v>3.070588956266985</v>
+      </c>
+      <c r="CR3">
+        <v>2.766211961533072</v>
       </c>
       <c r="CS3">
-        <v>3.866973403712403</v>
+        <v>2.48157994349349</v>
+      </c>
+      <c r="CT3">
+        <v>3.375551176730126</v>
+      </c>
+      <c r="CU3">
+        <v>3.927747787149631</v>
+      </c>
+      <c r="CV3">
+        <v>5.071864724233665</v>
+      </c>
+      <c r="CW3">
+        <v>5.829497559460148</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>5.998143201010842</v>
+      </c>
       <c r="C4">
-        <v>4.712237859579291</v>
+        <v>4.572380082940597</v>
       </c>
       <c r="D4">
-        <v>5.382475488722955</v>
+        <v>5.34150344477483</v>
       </c>
       <c r="E4">
-        <v>4.823979963385622</v>
-      </c>
-      <c r="F4">
-        <v>6.228818802631558</v>
+        <v>7.712571817336137</v>
       </c>
       <c r="H4">
-        <v>5.127230873613091</v>
+        <v>11.57801007450218</v>
       </c>
       <c r="I4">
-        <v>7.608984089435808</v>
+        <v>4.12881021643605</v>
+      </c>
+      <c r="J4">
+        <v>3.758400575515189</v>
+      </c>
+      <c r="K4">
+        <v>5.491768489011646</v>
       </c>
       <c r="L4">
-        <v>5.02893852542919</v>
+        <v>4.996170822854221</v>
+      </c>
+      <c r="M4">
+        <v>4.983920750678092</v>
       </c>
       <c r="N4">
-        <v>6.547322646666446</v>
+        <v>4.306584612038344</v>
+      </c>
+      <c r="O4">
+        <v>7.188128957369139</v>
+      </c>
+      <c r="P4">
+        <v>4.583807126294007</v>
       </c>
       <c r="Q4">
-        <v>6.21841161261996</v>
-      </c>
-      <c r="R4">
-        <v>5.683739961927806</v>
-      </c>
-      <c r="S4">
-        <v>9.132777721610999</v>
+        <v>6.188313329218738</v>
       </c>
       <c r="T4">
-        <v>3.15851424887612</v>
+        <v>11.03015220090384</v>
+      </c>
+      <c r="U4">
+        <v>3.979648608207917</v>
       </c>
       <c r="V4">
-        <v>5.673114170517275</v>
+        <v>4.069567647873265</v>
       </c>
       <c r="W4">
-        <v>6.985692254175446</v>
-      </c>
-      <c r="X4">
-        <v>12.17257873444643</v>
-      </c>
-      <c r="Y4">
-        <v>5.537508649877427</v>
+        <v>6.850775561471989</v>
+      </c>
+      <c r="Z4">
+        <v>5.963155849433182</v>
+      </c>
+      <c r="AA4">
+        <v>8.320720513194223</v>
       </c>
       <c r="AC4">
-        <v>4.567871744156154</v>
-      </c>
-      <c r="AE4">
-        <v>8.098085626877547</v>
+        <v>6.079268469657984</v>
+      </c>
+      <c r="AD4">
+        <v>18.66325373513435</v>
       </c>
       <c r="AF4">
-        <v>9.867400566302798</v>
-      </c>
-      <c r="AH4">
-        <v>4.077159167575822</v>
+        <v>7.396071371042863</v>
+      </c>
+      <c r="AG4">
+        <v>7.70535621396716</v>
       </c>
       <c r="AI4">
-        <v>5.131173267104943</v>
+        <v>5.069576687386077</v>
       </c>
       <c r="AJ4">
-        <v>9.0559104155168</v>
+        <v>5.601791436552588</v>
+      </c>
+      <c r="AK4">
+        <v>6.035432285664429</v>
       </c>
       <c r="AL4">
-        <v>3.422805127777178</v>
+        <v>21.71724546402231</v>
+      </c>
+      <c r="AM4">
+        <v>4.192895258817157</v>
+      </c>
+      <c r="AN4">
+        <v>5.728248595305294</v>
       </c>
       <c r="AO4">
-        <v>8.262949247268244</v>
+        <v>16.08244666696811</v>
       </c>
       <c r="AP4">
-        <v>9.075960939384141</v>
+        <v>5.192335657679982</v>
       </c>
       <c r="AQ4">
-        <v>19.80733106628089</v>
+        <v>5.221438170139058</v>
       </c>
       <c r="AR4">
-        <v>4.900431224948911</v>
-      </c>
-      <c r="AS4">
-        <v>9.88072926525251</v>
+        <v>3.649354628735893</v>
       </c>
       <c r="AT4">
-        <v>7.985075879975768</v>
+        <v>4.602526557736848</v>
+      </c>
+      <c r="AU4">
+        <v>3.365509247085329</v>
       </c>
       <c r="AV4">
-        <v>6.667099267993004</v>
+        <v>3.46580324699586</v>
       </c>
       <c r="AW4">
-        <v>16.60915792499432</v>
+        <v>6.720086845038803</v>
       </c>
       <c r="AX4">
-        <v>7.924925612400142</v>
+        <v>3.006611696739552</v>
+      </c>
+      <c r="AY4">
+        <v>12.82138683140456</v>
       </c>
       <c r="AZ4">
-        <v>7.19459746290574</v>
+        <v>2.060133428025836</v>
       </c>
       <c r="BA4">
-        <v>5.723068585511395</v>
+        <v>12.00934794426072</v>
       </c>
       <c r="BB4">
-        <v>8.699012594299496</v>
+        <v>7.612403087349244</v>
       </c>
       <c r="BC4">
-        <v>6.23486492793659</v>
+        <v>9.695615665268916</v>
       </c>
       <c r="BD4">
-        <v>5.491304583157112</v>
+        <v>2.450529905617597</v>
       </c>
       <c r="BE4">
-        <v>7.272131361914394</v>
+        <v>3.642100533983166</v>
       </c>
       <c r="BF4">
-        <v>7.602270711002493</v>
-      </c>
-      <c r="BG4">
-        <v>4.26149686504075</v>
+        <v>3.976400224864496</v>
       </c>
       <c r="BH4">
-        <v>6.460137177574703</v>
+        <v>5.259003769540918</v>
       </c>
       <c r="BI4">
-        <v>4.818675532011559</v>
+        <v>4.110313910737422</v>
       </c>
       <c r="BJ4">
-        <v>5.793595047319263</v>
+        <v>5.915454515278888</v>
+      </c>
+      <c r="BK4">
+        <v>4.039515824738284</v>
       </c>
       <c r="BL4">
-        <v>6.464161056390113</v>
+        <v>3.314885136227662</v>
       </c>
       <c r="BM4">
-        <v>4.905996985257946</v>
+        <v>4.400061876019271</v>
       </c>
       <c r="BN4">
-        <v>6.187970542509564</v>
+        <v>8.427026246267387</v>
       </c>
       <c r="BO4">
-        <v>4.478308952041287</v>
+        <v>3.244657714916309</v>
+      </c>
+      <c r="BP4">
+        <v>3.379802342945871</v>
+      </c>
+      <c r="BQ4">
+        <v>2.649493056466369</v>
       </c>
       <c r="BR4">
-        <v>4.695721512887424</v>
+        <v>4.067349392511012</v>
       </c>
       <c r="BS4">
-        <v>9.118825673103627</v>
+        <v>3.489127286708956</v>
+      </c>
+      <c r="BT4">
+        <v>6.424665488506934</v>
       </c>
       <c r="BU4">
-        <v>4.848401160442497</v>
+        <v>4.510682012790573</v>
+      </c>
+      <c r="BV4">
+        <v>4.359252768482992</v>
+      </c>
+      <c r="BW4">
+        <v>5.43806728348428</v>
       </c>
       <c r="BX4">
-        <v>4.332013772042807</v>
+        <v>2.937800977026022</v>
       </c>
       <c r="BY4">
-        <v>16.8920321094418</v>
-      </c>
-      <c r="CA4">
-        <v>4.067714260721543</v>
+        <v>3.633077906795094</v>
+      </c>
+      <c r="BZ4">
+        <v>3.008950675745091</v>
+      </c>
+      <c r="CB4">
+        <v>5.180439965961749</v>
+      </c>
+      <c r="CC4">
+        <v>1.640625099142964</v>
+      </c>
+      <c r="CD4">
+        <v>2.756484708428073</v>
       </c>
       <c r="CE4">
-        <v>8.081106816594241</v>
+        <v>3.468055481811394</v>
       </c>
       <c r="CF4">
-        <v>3.838316921755267</v>
+        <v>2.522428027251962</v>
+      </c>
+      <c r="CG4">
+        <v>4.394927855525651</v>
       </c>
       <c r="CH4">
-        <v>3.549823431193414</v>
+        <v>3.328664602738687</v>
       </c>
       <c r="CI4">
-        <v>3.030032691501978</v>
+        <v>1.794361522260544</v>
       </c>
       <c r="CK4">
-        <v>6.107465813981118</v>
+        <v>8.408111761620965</v>
       </c>
       <c r="CL4">
-        <v>4.779099030877091</v>
+        <v>3.638510363016193</v>
       </c>
       <c r="CM4">
-        <v>8.808849505718998</v>
+        <v>3.51288340087116</v>
       </c>
       <c r="CN4">
-        <v>4.057944186898871</v>
+        <v>3.200423218135847</v>
+      </c>
+      <c r="CO4">
+        <v>5.230953720798251</v>
       </c>
       <c r="CP4">
-        <v>7.25149022279612</v>
+        <v>5.520087592395045</v>
+      </c>
+      <c r="CQ4">
+        <v>3.419231808939446</v>
+      </c>
+      <c r="CR4">
+        <v>3.323925879711163</v>
       </c>
       <c r="CS4">
-        <v>4.108541792216561</v>
+        <v>2.688125501851071</v>
+      </c>
+      <c r="CT4">
+        <v>2.498587481570635</v>
       </c>
       <c r="CU4">
-        <v>6.655482071722323</v>
+        <v>4.714763998573428</v>
+      </c>
+      <c r="CV4">
+        <v>5.094730281798975</v>
+      </c>
+      <c r="CW4">
+        <v>9.304103262206789</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.687270979424604</v>
+        <v>5.787745941170646</v>
       </c>
       <c r="C5">
-        <v>5.764028890755623</v>
+        <v>6.547415356551248</v>
       </c>
       <c r="D5">
-        <v>5.957872192487893</v>
-      </c>
-      <c r="F5">
-        <v>5.92096046455881</v>
-      </c>
-      <c r="G5">
-        <v>5.990663108619533</v>
+        <v>4.517810068911967</v>
+      </c>
+      <c r="E5">
+        <v>4.829925294921773</v>
       </c>
       <c r="H5">
-        <v>5.421934963583165</v>
+        <v>12.71762117040367</v>
       </c>
       <c r="I5">
-        <v>9.476822486628333</v>
+        <v>4.915921192560305</v>
+      </c>
+      <c r="J5">
+        <v>5.238704227867496</v>
+      </c>
+      <c r="K5">
+        <v>5.135715874017539</v>
+      </c>
+      <c r="L5">
+        <v>5.984987993995119</v>
+      </c>
+      <c r="M5">
+        <v>4.40910772830549</v>
       </c>
       <c r="N5">
-        <v>7.243559748065249</v>
+        <v>4.574407928698935</v>
       </c>
       <c r="O5">
-        <v>7.121741346431072</v>
-      </c>
-      <c r="S5">
-        <v>9.225567977407056</v>
-      </c>
-      <c r="T5">
-        <v>4.253301603870604</v>
+        <v>9.258119976360735</v>
+      </c>
+      <c r="P5">
+        <v>5.830317547260668</v>
+      </c>
+      <c r="Q5">
+        <v>6.800981054634192</v>
+      </c>
+      <c r="R5">
+        <v>6.337970115703067</v>
+      </c>
+      <c r="U5">
+        <v>5.206052298465631</v>
       </c>
       <c r="V5">
-        <v>5.093266409710201</v>
+        <v>5.04258221567766</v>
       </c>
       <c r="W5">
-        <v>6.638711478162397</v>
-      </c>
-      <c r="X5">
-        <v>13.27356098958402</v>
-      </c>
-      <c r="Y5">
-        <v>5.022822978294113</v>
+        <v>6.207878674447947</v>
       </c>
       <c r="Z5">
-        <v>5.971202433622327</v>
-      </c>
-      <c r="AB5">
-        <v>3.415349204428425</v>
+        <v>4.5642585137884</v>
+      </c>
+      <c r="AA5">
+        <v>9.009077296326646</v>
       </c>
       <c r="AC5">
-        <v>4.589011478322535</v>
-      </c>
-      <c r="AD5">
-        <v>3.977868718442516</v>
-      </c>
-      <c r="AE5">
-        <v>6.683668821239051</v>
-      </c>
-      <c r="AH5">
-        <v>3.757668292169881</v>
+        <v>2.70279290091336</v>
+      </c>
+      <c r="AF5">
+        <v>6.407947637504785</v>
+      </c>
+      <c r="AG5">
+        <v>8.170731744423843</v>
       </c>
       <c r="AI5">
-        <v>5.164328790250452</v>
+        <v>4.824259001215663</v>
       </c>
       <c r="AJ5">
-        <v>6.95011205438799</v>
+        <v>5.39700395523753</v>
+      </c>
+      <c r="AK5">
+        <v>3.934877551057393</v>
       </c>
       <c r="AL5">
-        <v>4.041588665506517</v>
-      </c>
-      <c r="AO5">
-        <v>5.187424016805757</v>
+        <v>21.52906953178633</v>
+      </c>
+      <c r="AM5">
+        <v>4.909516525351515</v>
+      </c>
+      <c r="AN5">
+        <v>3.856674518800643</v>
       </c>
       <c r="AP5">
-        <v>7.896435058977938</v>
+        <v>5.231706963033527</v>
       </c>
       <c r="AQ5">
-        <v>21.10309401465656</v>
+        <v>4.360070377438658</v>
       </c>
       <c r="AR5">
-        <v>3.925058606611697</v>
+        <v>3.357257033369157</v>
       </c>
       <c r="AT5">
-        <v>11.51384313799161</v>
+        <v>3.546823979895632</v>
+      </c>
+      <c r="AU5">
+        <v>4.343613715404847</v>
       </c>
       <c r="AV5">
-        <v>5.681499540037769</v>
+        <v>3.544333159443601</v>
       </c>
       <c r="AW5">
-        <v>14.79335529948632</v>
+        <v>6.101041276194149</v>
       </c>
       <c r="AX5">
-        <v>6.041551404365346</v>
+        <v>2.215743766771152</v>
       </c>
       <c r="AY5">
-        <v>3.471815868956756</v>
+        <v>13.68664256582425</v>
       </c>
       <c r="AZ5">
-        <v>5.845537104289853</v>
+        <v>1.674764994813402</v>
       </c>
       <c r="BA5">
-        <v>5.549591053684058</v>
+        <v>13.88171392851254</v>
       </c>
       <c r="BB5">
-        <v>9.983771237632151</v>
+        <v>5.847635254418047</v>
       </c>
       <c r="BC5">
-        <v>6.122198736286016</v>
+        <v>7.11783995708732</v>
       </c>
       <c r="BD5">
-        <v>4.00900589374323</v>
+        <v>3.393699060454458</v>
       </c>
       <c r="BE5">
-        <v>5.883838190004935</v>
+        <v>2.916097631697664</v>
       </c>
       <c r="BF5">
-        <v>11.04962704133423</v>
+        <v>2.977319000165628</v>
+      </c>
+      <c r="BG5">
+        <v>1.323442317284484</v>
       </c>
       <c r="BH5">
-        <v>7.418829676716092</v>
+        <v>3.388969379556046</v>
       </c>
       <c r="BI5">
-        <v>3.631782309494616</v>
+        <v>3.246311244904085</v>
       </c>
       <c r="BJ5">
-        <v>4.857488371944628</v>
+        <v>7.037378943046015</v>
+      </c>
+      <c r="BK5">
+        <v>5.118623344589649</v>
       </c>
       <c r="BL5">
-        <v>5.967318184753662</v>
+        <v>4.624017008971625</v>
+      </c>
+      <c r="BM5">
+        <v>4.547260507232069</v>
+      </c>
+      <c r="BN5">
+        <v>7.126980180514205</v>
+      </c>
+      <c r="BO5">
+        <v>3.62945418240919</v>
       </c>
       <c r="BP5">
-        <v>10.10211174327833</v>
+        <v>2.843292893036359</v>
+      </c>
+      <c r="BQ5">
+        <v>2.912201176932929</v>
       </c>
       <c r="BR5">
-        <v>5.061584617189452</v>
+        <v>3.476013191164923</v>
       </c>
       <c r="BS5">
-        <v>9.365201666292164</v>
+        <v>5.051098706058571</v>
+      </c>
+      <c r="BT5">
+        <v>7.393736536280529</v>
       </c>
       <c r="BU5">
-        <v>5.506918305134196</v>
+        <v>6.402859478937335</v>
       </c>
       <c r="BV5">
-        <v>3.451210619790585</v>
+        <v>2.647064514697113</v>
+      </c>
+      <c r="BW5">
+        <v>4.017856063454862</v>
       </c>
       <c r="BX5">
-        <v>5.500360350160916</v>
+        <v>3.517834580425389</v>
       </c>
       <c r="BY5">
-        <v>9.677749637542776</v>
-      </c>
-      <c r="CA5">
-        <v>4.37328557140225</v>
+        <v>2.440833494742223</v>
+      </c>
+      <c r="BZ5">
+        <v>4.121877197292648</v>
+      </c>
+      <c r="CB5">
+        <v>5.14384745044292</v>
       </c>
       <c r="CC5">
-        <v>4.086970418891333</v>
+        <v>2.224530137311832</v>
       </c>
       <c r="CD5">
-        <v>6.813494755307882</v>
+        <v>3.432622738587772</v>
       </c>
       <c r="CE5">
-        <v>8.430626604453469</v>
+        <v>2.842238792813653</v>
+      </c>
+      <c r="CF5">
+        <v>3.607838045474614</v>
+      </c>
+      <c r="CG5">
+        <v>4.058665308927544</v>
       </c>
       <c r="CH5">
-        <v>3.390206247796758</v>
+        <v>2.682615738924301</v>
+      </c>
+      <c r="CI5">
+        <v>2.094230661393825</v>
       </c>
       <c r="CK5">
-        <v>6.406495713559727</v>
+        <v>5.821691082979056</v>
+      </c>
+      <c r="CL5">
+        <v>2.993803534004225</v>
       </c>
       <c r="CM5">
-        <v>7.810368237204597</v>
+        <v>2.933195559801726</v>
       </c>
       <c r="CN5">
-        <v>3.475296875776291</v>
+        <v>2.49445239868939</v>
+      </c>
+      <c r="CO5">
+        <v>6.108492248586854</v>
       </c>
       <c r="CP5">
-        <v>5.247725337468868</v>
+        <v>4.021335557026697</v>
+      </c>
+      <c r="CQ5">
+        <v>3.983461526562423</v>
+      </c>
+      <c r="CR5">
+        <v>2.244948294378779</v>
       </c>
       <c r="CS5">
-        <v>3.100384834591857</v>
+        <v>1.861593234330709</v>
+      </c>
+      <c r="CT5">
+        <v>2.381326001394025</v>
       </c>
       <c r="CU5">
-        <v>6.678711781878682</v>
+        <v>3.905414572444</v>
+      </c>
+      <c r="CV5">
+        <v>4.974623959394293</v>
       </c>
       <c r="CW5">
-        <v>3.43193452222115</v>
+        <v>5.403509388142588</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.941676716347839</v>
-      </c>
-      <c r="C6">
-        <v>6.757760524078623</v>
+        <v>6.809189652461156</v>
       </c>
       <c r="D6">
-        <v>8.854246335029046</v>
+        <v>6.224855537204644</v>
+      </c>
+      <c r="E6">
+        <v>4.973072149493529</v>
       </c>
       <c r="F6">
-        <v>6.411513490534044</v>
-      </c>
-      <c r="G6">
-        <v>11.62568308618854</v>
+        <v>5.842494195167022</v>
       </c>
       <c r="H6">
-        <v>6.356600556288706</v>
+        <v>11.01809882809301</v>
       </c>
       <c r="I6">
-        <v>11.18446545388801</v>
+        <v>7.740955487821198</v>
       </c>
       <c r="J6">
-        <v>5.726337350072969</v>
+        <v>5.935959057793672</v>
+      </c>
+      <c r="K6">
+        <v>5.632314456302198</v>
+      </c>
+      <c r="L6">
+        <v>6.576700037934905</v>
       </c>
       <c r="M6">
-        <v>6.589628955249738</v>
+        <v>4.545034330552777</v>
       </c>
       <c r="N6">
-        <v>10.99541621036552</v>
+        <v>5.834292399971722</v>
+      </c>
+      <c r="O6">
+        <v>10.8118902887373</v>
+      </c>
+      <c r="P6">
+        <v>5.323240471345942</v>
       </c>
       <c r="Q6">
-        <v>7.419542369193658</v>
-      </c>
-      <c r="S6">
-        <v>7.872277934025693</v>
-      </c>
-      <c r="T6">
-        <v>5.124311305493366</v>
+        <v>10.46276483376982</v>
+      </c>
+      <c r="V6">
+        <v>10.22381801093156</v>
       </c>
       <c r="W6">
-        <v>7.665240747269875</v>
-      </c>
-      <c r="X6">
-        <v>11.53548164225285</v>
+        <v>9.565643175657453</v>
       </c>
       <c r="Y6">
-        <v>5.651261683510077</v>
+        <v>12.85302788316094</v>
+      </c>
+      <c r="Z6">
+        <v>4.24796764978238</v>
       </c>
       <c r="AA6">
-        <v>11.78478280770548</v>
-      </c>
-      <c r="AB6">
-        <v>4.23989805285784</v>
+        <v>13.29924135029767</v>
       </c>
       <c r="AC6">
-        <v>4.549079296864916</v>
+        <v>1.61296028846759</v>
       </c>
       <c r="AD6">
-        <v>4.808438956853767</v>
+        <v>28.22396600136944</v>
       </c>
       <c r="AE6">
-        <v>8.107352579603059</v>
+        <v>11.51414140218306</v>
+      </c>
+      <c r="AF6">
+        <v>7.48943920945558</v>
       </c>
       <c r="AG6">
-        <v>6.560836182774039</v>
+        <v>16.64405968218864</v>
       </c>
       <c r="AH6">
-        <v>4.521867379445428</v>
+        <v>10.70687712090531</v>
+      </c>
+      <c r="AI6">
+        <v>5.669521573477653</v>
       </c>
       <c r="AJ6">
-        <v>9.813557000555894</v>
+        <v>5.951372982281069</v>
       </c>
       <c r="AK6">
-        <v>5.327483963898796</v>
+        <v>6.341675218057081</v>
+      </c>
+      <c r="AL6">
+        <v>25.50399568547278</v>
       </c>
       <c r="AM6">
-        <v>9.646772097474861</v>
+        <v>7.027536868040773</v>
       </c>
       <c r="AN6">
-        <v>32.93530412804662</v>
+        <v>5.555765106854359</v>
       </c>
       <c r="AO6">
-        <v>7.159670057258816</v>
+        <v>21.1351537753865</v>
       </c>
       <c r="AP6">
-        <v>9.170966600157911</v>
+        <v>4.714009640897094</v>
       </c>
       <c r="AQ6">
-        <v>23.41099163197581</v>
+        <v>5.1306862838664</v>
       </c>
       <c r="AR6">
-        <v>5.07933952046778</v>
+        <v>4.404265993303884</v>
+      </c>
+      <c r="AS6">
+        <v>8.231913763901538</v>
+      </c>
+      <c r="AT6">
+        <v>4.003959576857332</v>
+      </c>
+      <c r="AU6">
+        <v>4.090819199183384</v>
       </c>
       <c r="AV6">
-        <v>6.319065692514047</v>
+        <v>3.841355718158594</v>
       </c>
       <c r="AW6">
-        <v>11.53207010604703</v>
+        <v>13.62043737866454</v>
       </c>
       <c r="AX6">
-        <v>7.059880851852212</v>
+        <v>2.778333724705945</v>
+      </c>
+      <c r="AY6">
+        <v>19.84568444787232</v>
+      </c>
+      <c r="AZ6">
+        <v>1.474693307848973</v>
       </c>
       <c r="BA6">
-        <v>5.714519051494797</v>
+        <v>10.22236279414821</v>
       </c>
       <c r="BB6">
-        <v>9.288479648057541</v>
+        <v>6.724747381030975</v>
+      </c>
+      <c r="BC6">
+        <v>8.597350995971986</v>
       </c>
       <c r="BD6">
-        <v>4.55629151367449</v>
+        <v>2.514981917879939</v>
       </c>
       <c r="BE6">
-        <v>6.709539078954647</v>
+        <v>3.230666911594855</v>
       </c>
       <c r="BF6">
-        <v>11.24755519551222</v>
+        <v>3.945657504639541</v>
       </c>
       <c r="BG6">
-        <v>5.034495530228296</v>
+        <v>1.961188906106689</v>
+      </c>
+      <c r="BH6">
+        <v>2.937527992210669</v>
       </c>
       <c r="BI6">
-        <v>4.527262841348632</v>
+        <v>3.325189956657125</v>
       </c>
       <c r="BJ6">
-        <v>7.028867735367916</v>
+        <v>5.483588805280561</v>
+      </c>
+      <c r="BK6">
+        <v>5.71852871517298</v>
       </c>
       <c r="BL6">
-        <v>7.08504760920471</v>
+        <v>3.673433499856509</v>
+      </c>
+      <c r="BM6">
+        <v>4.926430168926561</v>
+      </c>
+      <c r="BN6">
+        <v>9.996463578247408</v>
       </c>
       <c r="BO6">
-        <v>4.358686184637484</v>
+        <v>3.510197888828328</v>
+      </c>
+      <c r="BP6">
+        <v>3.781076557119285</v>
+      </c>
+      <c r="BQ6">
+        <v>2.336340874890741</v>
       </c>
       <c r="BR6">
-        <v>5.428573269472486</v>
+        <v>3.169131375498168</v>
       </c>
       <c r="BS6">
-        <v>10.47481151498032</v>
+        <v>5.516020290196882</v>
+      </c>
+      <c r="BT6">
+        <v>6.926490521976739</v>
       </c>
       <c r="BU6">
-        <v>5.769391952617254</v>
+        <v>6.496443504739833</v>
       </c>
       <c r="BV6">
-        <v>3.841478254627082</v>
+        <v>3.328215363236362</v>
+      </c>
+      <c r="BW6">
+        <v>5.928210530517076</v>
       </c>
       <c r="BX6">
-        <v>5.427421444595492</v>
+        <v>3.071067020590435</v>
       </c>
       <c r="BY6">
-        <v>18.30649092285</v>
+        <v>3.558480473265549</v>
+      </c>
+      <c r="BZ6">
+        <v>4.599652937986145</v>
       </c>
       <c r="CA6">
-        <v>4.932022221262328</v>
+        <v>5.970348960194643</v>
+      </c>
+      <c r="CB6">
+        <v>6.831252970966711</v>
       </c>
       <c r="CC6">
-        <v>8.164498998572689</v>
+        <v>3.244946589430407</v>
       </c>
       <c r="CD6">
-        <v>5.291669357088568</v>
+        <v>2.982576733106806</v>
       </c>
       <c r="CE6">
-        <v>9.500808417333671</v>
+        <v>2.81031652596223</v>
       </c>
       <c r="CF6">
-        <v>4.482521019805866</v>
+        <v>4.543393496897149</v>
+      </c>
+      <c r="CG6">
+        <v>5.796882654138699</v>
       </c>
       <c r="CH6">
-        <v>5.812404686590831</v>
+        <v>3.673927731999064</v>
       </c>
       <c r="CI6">
-        <v>4.918805075073924</v>
+        <v>1.855303027764554</v>
       </c>
       <c r="CJ6">
-        <v>5.519250049007016</v>
+        <v>4.505520826228675</v>
       </c>
       <c r="CK6">
-        <v>8.761083338367344</v>
+        <v>6.16366308145305</v>
       </c>
       <c r="CL6">
-        <v>4.282575837096843</v>
+        <v>3.580163477881702</v>
       </c>
       <c r="CM6">
-        <v>6.493471599777035</v>
+        <v>3.201092664759417</v>
       </c>
       <c r="CN6">
-        <v>4.629731389893528</v>
+        <v>3.308468496354902</v>
+      </c>
+      <c r="CO6">
+        <v>5.304305581644679</v>
       </c>
       <c r="CP6">
-        <v>4.617441296430119</v>
+        <v>4.630791760871385</v>
       </c>
       <c r="CQ6">
-        <v>3.38801051084709</v>
+        <v>3.298802511618045</v>
+      </c>
+      <c r="CR6">
+        <v>2.634001884923009</v>
       </c>
       <c r="CS6">
-        <v>3.619878860954987</v>
+        <v>3.062766582758655</v>
       </c>
       <c r="CT6">
-        <v>3.403829320041522</v>
+        <v>3.296939992695243</v>
+      </c>
+      <c r="CU6">
+        <v>7.166043507951128</v>
+      </c>
+      <c r="CV6">
+        <v>4.210507998123491</v>
+      </c>
+      <c r="CW6">
+        <v>7.612416101721831</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.591607348978322</v>
-      </c>
       <c r="C7">
-        <v>6.470242296774563</v>
+        <v>8.051850380239275</v>
       </c>
       <c r="D7">
-        <v>6.223763426315196</v>
+        <v>5.181612397585058</v>
+      </c>
+      <c r="E7">
+        <v>5.318668305572588</v>
       </c>
       <c r="F7">
-        <v>6.785190707858198</v>
-      </c>
-      <c r="G7">
-        <v>8.234134387917431</v>
+        <v>4.170424421866039</v>
       </c>
       <c r="H7">
-        <v>6.641287767668221</v>
-      </c>
-      <c r="I7">
-        <v>8.269043401900634</v>
+        <v>9.337277362051839</v>
+      </c>
+      <c r="J7">
+        <v>5.39415586820825</v>
+      </c>
+      <c r="K7">
+        <v>5.495774427295447</v>
       </c>
       <c r="L7">
-        <v>4.12754329532275</v>
+        <v>5.643556692265111</v>
+      </c>
+      <c r="M7">
+        <v>4.926646617719319</v>
       </c>
       <c r="N7">
-        <v>6.158812267106771</v>
-      </c>
-      <c r="R7">
-        <v>5.445265941202099</v>
+        <v>5.977649745435081</v>
+      </c>
+      <c r="O7">
+        <v>7.725311417425107</v>
+      </c>
+      <c r="P7">
+        <v>5.224159593583176</v>
+      </c>
+      <c r="Q7">
+        <v>5.734032492646763</v>
       </c>
       <c r="T7">
-        <v>4.645203147663486</v>
+        <v>14.60943715557238</v>
+      </c>
+      <c r="U7">
+        <v>5.006635751869351</v>
       </c>
       <c r="V7">
-        <v>6.015331491460863</v>
-      </c>
-      <c r="X7">
-        <v>10.28966948174793</v>
+        <v>7.222116421619535</v>
+      </c>
+      <c r="W7">
+        <v>5.631600463005524</v>
       </c>
       <c r="Y7">
-        <v>6.180428387889238</v>
+        <v>8.55405369222574</v>
       </c>
       <c r="Z7">
-        <v>7.767573313553163</v>
+        <v>5.89530434020479</v>
       </c>
       <c r="AA7">
-        <v>7.216559209884306</v>
+        <v>6.265785234642266</v>
       </c>
       <c r="AC7">
-        <v>4.822467273779915</v>
-      </c>
-      <c r="AD7">
-        <v>4.854197380832563</v>
+        <v>3.017110471934129</v>
       </c>
       <c r="AE7">
-        <v>5.870851589210592</v>
+        <v>6.968969133571691</v>
+      </c>
+      <c r="AF7">
+        <v>6.481298813463954</v>
+      </c>
+      <c r="AG7">
+        <v>10.75000741063298</v>
       </c>
       <c r="AH7">
-        <v>4.331136570592065</v>
+        <v>6.711501925353675</v>
       </c>
       <c r="AI7">
-        <v>4.570966732670615</v>
+        <v>4.032730907878898</v>
       </c>
       <c r="AJ7">
-        <v>6.363982983153609</v>
+        <v>5.529634518572077</v>
       </c>
       <c r="AK7">
-        <v>6.181784939626811</v>
+        <v>3.672194702681104</v>
       </c>
       <c r="AL7">
-        <v>4.113708731043713</v>
+        <v>24.29565527693939</v>
       </c>
       <c r="AM7">
-        <v>7.354855817025514</v>
+        <v>7.157664292320007</v>
       </c>
       <c r="AO7">
-        <v>4.113889201541748</v>
+        <v>10.24086263263311</v>
       </c>
       <c r="AP7">
-        <v>7.232351296321806</v>
+        <v>5.103923883989377</v>
       </c>
       <c r="AQ7">
-        <v>23.23082914693011</v>
+        <v>5.876871981685447</v>
       </c>
       <c r="AR7">
-        <v>4.128431812412956</v>
+        <v>4.871746923277424</v>
+      </c>
+      <c r="AS7">
+        <v>6.659965352752604</v>
       </c>
       <c r="AT7">
-        <v>7.615203679276009</v>
+        <v>3.751816985782505</v>
+      </c>
+      <c r="AU7">
+        <v>4.178755867733081</v>
       </c>
       <c r="AV7">
-        <v>6.274557771225323</v>
+        <v>3.675064021681392</v>
       </c>
       <c r="AW7">
-        <v>11.91130787421452</v>
+        <v>12.59742401684641</v>
       </c>
       <c r="AX7">
-        <v>3.585255419619122</v>
+        <v>3.563558309251792</v>
+      </c>
+      <c r="AY7">
+        <v>14.42644340884219</v>
       </c>
       <c r="AZ7">
-        <v>5.932608087538462</v>
+        <v>1.883206052129472</v>
       </c>
       <c r="BA7">
-        <v>6.027850974596909</v>
+        <v>12.29302990992142</v>
       </c>
       <c r="BB7">
-        <v>7.452592852195545</v>
+        <v>5.991014027033689</v>
       </c>
       <c r="BC7">
-        <v>5.960627334320003</v>
+        <v>5.817495497356579</v>
+      </c>
+      <c r="BD7">
+        <v>4.111063712269624</v>
       </c>
       <c r="BE7">
-        <v>6.10295871045007</v>
+        <v>3.492315225845741</v>
       </c>
       <c r="BF7">
-        <v>8.830454258973404</v>
+        <v>3.18358335232786</v>
       </c>
       <c r="BG7">
-        <v>4.202807541859369</v>
+        <v>1.864641569869749</v>
+      </c>
+      <c r="BH7">
+        <v>2.772117356380873</v>
       </c>
       <c r="BI7">
-        <v>4.296441192018942</v>
+        <v>3.664082420965084</v>
       </c>
       <c r="BJ7">
-        <v>5.187944966019953</v>
+        <v>6.494282780645808</v>
+      </c>
+      <c r="BK7">
+        <v>3.745739343820186</v>
       </c>
       <c r="BL7">
-        <v>6.697394263214129</v>
+        <v>3.808364156922697</v>
       </c>
       <c r="BM7">
-        <v>5.237196743265308</v>
+        <v>2.889481429192907</v>
+      </c>
+      <c r="BN7">
+        <v>6.258276178342125</v>
+      </c>
+      <c r="BO7">
+        <v>4.028169523929357</v>
+      </c>
+      <c r="BP7">
+        <v>2.038364808629423</v>
+      </c>
+      <c r="BQ7">
+        <v>2.76595487001899</v>
       </c>
       <c r="BR7">
-        <v>5.468173865188588</v>
+        <v>3.198515853078871</v>
       </c>
       <c r="BS7">
-        <v>10.1493469362354</v>
+        <v>3.947756103456277</v>
       </c>
       <c r="BT7">
-        <v>5.550692318372649</v>
+        <v>6.281780232475835</v>
       </c>
       <c r="BU7">
-        <v>4.585142411121264</v>
+        <v>5.450560953970549</v>
       </c>
       <c r="BV7">
-        <v>4.174771486125403</v>
+        <v>2.723348004449613</v>
       </c>
       <c r="BW7">
-        <v>4.731149598197025</v>
+        <v>4.272095897637302</v>
       </c>
       <c r="BX7">
-        <v>5.028887620299249</v>
-      </c>
-      <c r="CA7">
-        <v>4.433391614895772</v>
+        <v>3.53488823402803</v>
+      </c>
+      <c r="BY7">
+        <v>2.710132235081244</v>
+      </c>
+      <c r="BZ7">
+        <v>5.155890419818167</v>
       </c>
       <c r="CB7">
-        <v>3.626526624833859</v>
+        <v>4.095066585709524</v>
       </c>
       <c r="CC7">
-        <v>6.88170790730897</v>
+        <v>1.880354796207314</v>
       </c>
       <c r="CD7">
-        <v>5.287358100721212</v>
+        <v>3.512386125512078</v>
       </c>
       <c r="CE7">
-        <v>7.455925607120505</v>
+        <v>3.306909480324733</v>
       </c>
       <c r="CF7">
-        <v>3.459695534406255</v>
+        <v>2.791094099685995</v>
       </c>
       <c r="CG7">
-        <v>4.075072142668326</v>
+        <v>4.25091147392101</v>
       </c>
       <c r="CH7">
-        <v>3.241240447122792</v>
-      </c>
-      <c r="CJ7">
-        <v>5.173990004308381</v>
+        <v>3.786168024325197</v>
+      </c>
+      <c r="CI7">
+        <v>1.53090650437525</v>
       </c>
       <c r="CK7">
-        <v>6.105736716062594</v>
+        <v>7.716764581401827</v>
+      </c>
+      <c r="CL7">
+        <v>3.31197071026556</v>
       </c>
       <c r="CM7">
-        <v>7.432964705835331</v>
+        <v>2.925712428100611</v>
       </c>
       <c r="CN7">
-        <v>4.553303457734478</v>
+        <v>2.784814438941325</v>
+      </c>
+      <c r="CO7">
+        <v>4.948257906939998</v>
       </c>
       <c r="CP7">
-        <v>5.861987308764362</v>
+        <v>4.903381862269526</v>
       </c>
       <c r="CQ7">
-        <v>3.07127298423048</v>
+        <v>2.877905514878972</v>
+      </c>
+      <c r="CR7">
+        <v>2.602242460357509</v>
       </c>
       <c r="CS7">
-        <v>3.411133423757775</v>
+        <v>2.490266771769778</v>
+      </c>
+      <c r="CT7">
+        <v>3.762825998152493</v>
+      </c>
+      <c r="CU7">
+        <v>3.729142908988857</v>
+      </c>
+      <c r="CV7">
+        <v>3.638033143951623</v>
       </c>
       <c r="CW7">
-        <v>3.778252561356298</v>
+        <v>9.337340159782052</v>
       </c>
     </row>
   </sheetData>
